--- a/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -70,78 +73,75 @@
     <t>infected</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>panic</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -154,220 +154,217 @@
     <t>of</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>are</t>
   </si>
 </sst>
 </file>
@@ -733,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -836,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>0.9230769230769231</v>
@@ -894,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -944,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7945205479452054</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C6">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,16 +1062,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -1162,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8381201044386423</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,16 +1362,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,16 +1412,16 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.559322033898305</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.544973544973545</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C18">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.765625</v>
+        <v>0.75625</v>
       </c>
       <c r="L19">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.7625</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5155038759689923</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C21">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4516129032258064</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.7441860465116279</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1841,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.436241610738255</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4193548387096774</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K26">
         <v>0.7037037037037037</v>
@@ -1994,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2062,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2086,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3928571428571428</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,13 +2141,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3805555555555555</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C30">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.675</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2186,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2194,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2212,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2236,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3513513513513514</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C32">
         <v>13</v>
@@ -2262,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2286,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3272727272727273</v>
+        <v>0.36</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2312,31 +2309,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.62</v>
+        <v>0.5938566552901023</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,13 +2341,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2727272727272727</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2362,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.6147058823529412</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L34">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="M34">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,13 +2391,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2412,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,13 +2441,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C36">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2462,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2486,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,16 +2512,16 @@
         <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.5957446808510638</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L37">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2536,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,13 +2541,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1447721179624665</v>
+        <v>0.1367292225201072</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2562,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2586,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2594,13 +2591,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07666666666666666</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2612,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5732217573221757</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L39">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2644,37 +2641,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01264222503160556</v>
+        <v>0.01095659502739149</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E40">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F40">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2694,38 +2691,38 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01119724375538329</v>
+        <v>0.009831460674157303</v>
       </c>
       <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>0.25</v>
+      </c>
+      <c r="F41">
+        <v>0.75</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2115</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L41">
         <v>13</v>
       </c>
-      <c r="D41">
+      <c r="M41">
         <v>13</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1148</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K41">
-        <v>0.5627118644067797</v>
-      </c>
-      <c r="L41">
-        <v>166</v>
-      </c>
-      <c r="M41">
-        <v>166</v>
-      </c>
       <c r="N41">
         <v>1</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2744,19 +2741,19 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0103126007089913</v>
+        <v>0.009674298613350531</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>36</v>
       </c>
       <c r="E42">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F42">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2765,16 +2762,16 @@
         <v>3071</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2794,28 +2791,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008882655446470314</v>
+        <v>0.007819287576020852</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="F43">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2120</v>
+        <v>2284</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K43">
         <v>0.5357142857142857</v>
@@ -2844,37 +2841,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006944444444444444</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="F44">
-        <v>0.76</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2288</v>
+        <v>5115</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.5285714285714286</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2886,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2894,37 +2891,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006609642301710731</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E45">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>5110</v>
+        <v>4280</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.5168539325842697</v>
+        <v>0.52</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2936,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,37 +2941,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006600660066006601</v>
+        <v>0.004619401486242217</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="F46">
-        <v>0.43</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2408</v>
+        <v>4956</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2986,45 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.006042296072507553</v>
-      </c>
-      <c r="C47">
-        <v>26</v>
-      </c>
-      <c r="D47">
-        <v>51</v>
-      </c>
-      <c r="E47">
-        <v>0.49</v>
-      </c>
-      <c r="F47">
-        <v>0.51</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>4277</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3040,195 +3013,147 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.005434782608695652</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-      <c r="D48">
-        <v>55</v>
-      </c>
-      <c r="E48">
-        <v>0.51</v>
-      </c>
-      <c r="F48">
-        <v>0.49</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>4941</v>
-      </c>
       <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L49">
+        <v>18</v>
+      </c>
+      <c r="M49">
+        <v>18</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K48">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.004409448818897638</v>
-      </c>
-      <c r="C49">
-        <v>14</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49">
-        <v>0.65</v>
-      </c>
-      <c r="F49">
-        <v>0.35</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3161</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="K51">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>29</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K49">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>13</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
+      <c r="K52">
+        <v>0.328125</v>
+      </c>
+      <c r="L52">
+        <v>21</v>
+      </c>
+      <c r="M52">
+        <v>21</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K50">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="L50">
-        <v>24</v>
-      </c>
-      <c r="M50">
-        <v>24</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="L51">
-        <v>19</v>
-      </c>
-      <c r="M51">
-        <v>19</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.34375</v>
-      </c>
-      <c r="L52">
-        <v>22</v>
-      </c>
-      <c r="M52">
-        <v>22</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="K53">
-        <v>0.3389830508474576</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3243,18 +3168,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.3333333333333333</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3266,21 +3191,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.3287671232876712</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3292,12 +3217,12 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K56">
         <v>0.2131147540983606</v>
@@ -3321,38 +3246,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.1401869158878505</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L57">
         <v>15</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.07027027027027027</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L58">
         <v>13</v>
@@ -3370,293 +3295,293 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59">
+        <v>0.07567567567567568</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K60">
+        <v>0.02925045703839122</v>
+      </c>
+      <c r="L60">
+        <v>16</v>
+      </c>
+      <c r="M60">
+        <v>16</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61">
+        <v>0.02838063439065109</v>
+      </c>
+      <c r="L61">
+        <v>34</v>
+      </c>
+      <c r="M61">
+        <v>36</v>
+      </c>
+      <c r="N61">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K59">
-        <v>0.03010033444816054</v>
-      </c>
-      <c r="L59">
-        <v>36</v>
-      </c>
-      <c r="M59">
-        <v>40</v>
-      </c>
-      <c r="N59">
-        <v>0.9</v>
-      </c>
-      <c r="O59">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
+      <c r="K62">
+        <v>0.00881057268722467</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>0.74</v>
+      </c>
+      <c r="O62">
+        <v>0.26</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K60">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="L60">
-        <v>14</v>
-      </c>
-      <c r="M60">
-        <v>15</v>
-      </c>
-      <c r="N60">
-        <v>0.93</v>
-      </c>
-      <c r="O60">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
+      <c r="K63">
+        <v>0.007806080525883319</v>
+      </c>
+      <c r="L63">
+        <v>19</v>
+      </c>
+      <c r="M63">
+        <v>30</v>
+      </c>
+      <c r="N63">
+        <v>0.63</v>
+      </c>
+      <c r="O63">
+        <v>0.37</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K61">
-        <v>0.01238738738738739</v>
-      </c>
-      <c r="L61">
-        <v>33</v>
-      </c>
-      <c r="M61">
-        <v>42</v>
-      </c>
-      <c r="N61">
-        <v>0.79</v>
-      </c>
-      <c r="O61">
-        <v>0.21</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K62">
-        <v>0.01198738170347003</v>
-      </c>
-      <c r="L62">
-        <v>19</v>
-      </c>
-      <c r="M62">
-        <v>28</v>
-      </c>
-      <c r="N62">
-        <v>0.68</v>
-      </c>
-      <c r="O62">
-        <v>0.32</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K63">
-        <v>0.01130653266331658</v>
-      </c>
-      <c r="L63">
-        <v>27</v>
-      </c>
-      <c r="M63">
-        <v>33</v>
-      </c>
-      <c r="N63">
-        <v>0.82</v>
-      </c>
-      <c r="O63">
-        <v>0.18</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K64">
-        <v>0.01096319498825372</v>
+        <v>0.007528230865746549</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N64">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="O64">
-        <v>0.46</v>
+        <v>0.14</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1263</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.008645533141210375</v>
+        <v>0.0075046904315197</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N65">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="O65">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2408</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>0.00815814245371823</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="O66">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3161</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="K67">
-        <v>0.005811250581125058</v>
+        <v>0.004702194357366771</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N67">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="O67">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>4277</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>0.005634936606963172</v>
+        <v>0.003418459682284335</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N68">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="O68">
-        <v>0.49</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4941</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69">
+        <v>0.003312548713951676</v>
+      </c>
+      <c r="L69">
+        <v>17</v>
+      </c>
+      <c r="M69">
         <v>50</v>
       </c>
-      <c r="K69">
-        <v>0.004092769440654843</v>
-      </c>
-      <c r="L69">
-        <v>21</v>
-      </c>
-      <c r="M69">
-        <v>55</v>
-      </c>
       <c r="N69">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="O69">
-        <v>0.62</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>5110</v>
+        <v>5115</v>
       </c>
     </row>
   </sheetData>
